--- a/Archivos Excel/givesOpinionConcert.xlsx
+++ b/Archivos Excel/givesOpinionConcert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A27A476-81DD-468E-B3CD-2BAA4A39239A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4C7E60-6941-4A55-9910-C74FCA9390BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9465" xr2:uid="{0B49BBFC-3271-43E7-A26A-4027C18B2770}"/>
   </bookViews>
@@ -27,6 +27,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>insert into givesOpinionConcert(</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,15 +390,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4710D69-7F4E-432D-8E1A-B97424053240}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2321423</v>
       </c>
@@ -397,8 +415,15 @@
       <c r="D1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="str">
+        <f>CONCATENATE($J$1,A1,$J$3,B1,$J$3,C1,$J$2)</f>
+        <v>insert into givesOpinionConcert(2321423,3980,7);</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2321423</v>
       </c>
@@ -408,8 +433,15 @@
       <c r="C2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F21" si="0">CONCATENATE($J$1,A2,$J$3,B2,$J$3,C2,$J$2)</f>
+        <v>insert into givesOpinionConcert(2321423,3990,9);</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2321423</v>
       </c>
@@ -419,8 +451,15 @@
       <c r="C3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into givesOpinionConcert(2321423,4470,6);</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2321423</v>
       </c>
@@ -430,13 +469,17 @@
       <c r="C4">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into givesOpinionConcert(2321423,4480,10);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4737492</v>
       </c>
@@ -449,8 +492,12 @@
       <c r="D8">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into givesOpinionConcert(4737492,3980,7);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1238471</v>
       </c>
@@ -463,8 +510,12 @@
       <c r="D10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into givesOpinionConcert(1238471,3990,8);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1238471</v>
       </c>
@@ -474,18 +525,22 @@
       <c r="C11">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into givesOpinionConcert(1238471,4470,5);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3283295</v>
       </c>
@@ -498,8 +553,12 @@
       <c r="D17">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into givesOpinionConcert(3283295,4470,7);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2374827</v>
       </c>
@@ -512,8 +571,12 @@
       <c r="D19">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into givesOpinionConcert(2374827,3990,6);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>9</v>
       </c>

--- a/Archivos Excel/givesOpinionConcert.xlsx
+++ b/Archivos Excel/givesOpinionConcert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4C7E60-6941-4A55-9910-C74FCA9390BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2A6003-3CDF-494E-94D1-4C8C7041D76D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9465" xr2:uid="{0B49BBFC-3271-43E7-A26A-4027C18B2770}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,13 +33,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>insert into givesOpinionConcert(</t>
-  </si>
-  <si>
     <t>);</t>
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>insert into givesOpinionConcert values(</t>
   </si>
 </sst>
 </file>
@@ -393,13 +394,13 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -417,10 +418,10 @@
       </c>
       <c r="F1" t="str">
         <f>CONCATENATE($J$1,A1,$J$3,B1,$J$3,C1,$J$2)</f>
-        <v>insert into givesOpinionConcert(2321423,3980,7);</v>
+        <v>insert into givesOpinionConcert values(2321423,3980,7);</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -434,11 +435,11 @@
         <v>9</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F21" si="0">CONCATENATE($J$1,A2,$J$3,B2,$J$3,C2,$J$2)</f>
-        <v>insert into givesOpinionConcert(2321423,3990,9);</v>
+        <f t="shared" ref="F2:F19" si="0">CONCATENATE($J$1,A2,$J$3,B2,$J$3,C2,$J$2)</f>
+        <v>insert into givesOpinionConcert values(2321423,3990,9);</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -453,10 +454,10 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into givesOpinionConcert(2321423,4470,6);</v>
+        <v>insert into givesOpinionConcert values(2321423,4470,6);</v>
       </c>
       <c r="J3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -471,7 +472,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into givesOpinionConcert(2321423,4480,10);</v>
+        <v>insert into givesOpinionConcert values(2321423,4480,10);</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -494,7 +495,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into givesOpinionConcert(4737492,3980,7);</v>
+        <v>insert into givesOpinionConcert values(4737492,3980,7);</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -512,7 +513,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into givesOpinionConcert(1238471,3990,8);</v>
+        <v>insert into givesOpinionConcert values(1238471,3990,8);</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -527,7 +528,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into givesOpinionConcert(1238471,4470,5);</v>
+        <v>insert into givesOpinionConcert values(1238471,4470,5);</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -555,7 +556,7 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into givesOpinionConcert(3283295,4470,7);</v>
+        <v>insert into givesOpinionConcert values(3283295,4470,7);</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -573,7 +574,7 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into givesOpinionConcert(2374827,3990,6);</v>
+        <v>insert into givesOpinionConcert values(2374827,3990,6);</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">

--- a/Archivos Excel/givesOpinionConcert.xlsx
+++ b/Archivos Excel/givesOpinionConcert.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2A6003-3CDF-494E-94D1-4C8C7041D76D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22ECA60-3CA1-4C5D-B962-C834D32E93BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9465" xr2:uid="{0B49BBFC-3271-43E7-A26A-4027C18B2770}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$23:$F$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -391,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4710D69-7F4E-432D-8E1A-B97424053240}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,8 +419,8 @@
         <v>1</v>
       </c>
       <c r="F1" t="str">
-        <f>CONCATENATE($J$1,A1,$J$3,B1,$J$3,C1,$J$2)</f>
-        <v>insert into givesOpinionConcert values(2321423,3980,7);</v>
+        <f>CONCATENATE($J$1,$D$22,A1,$J$3,B1,$J$3,C1,$J$2)</f>
+        <v>insert into givesOpinionConcert values(02321423,3980,7);</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -435,8 +437,8 @@
         <v>9</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F19" si="0">CONCATENATE($J$1,A2,$J$3,B2,$J$3,C2,$J$2)</f>
-        <v>insert into givesOpinionConcert values(2321423,3990,9);</v>
+        <f>CONCATENATE($J$1,$D$22,A2,$J$3,B2,$J$3,C2,$J$2)</f>
+        <v>insert into givesOpinionConcert values(02321423,3990,9);</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
@@ -453,8 +455,8 @@
         <v>6</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into givesOpinionConcert values(2321423,4470,6);</v>
+        <f>CONCATENATE($J$1,$D$22,A3,$J$3,B3,$J$3,C3,$J$2)</f>
+        <v>insert into givesOpinionConcert values(02321423,4470,6);</v>
       </c>
       <c r="J3" t="s">
         <v>1</v>
@@ -471,8 +473,8 @@
         <v>10</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into givesOpinionConcert values(2321423,4480,10);</v>
+        <f>CONCATENATE($J$1,$D$22,A4,$J$3,B4,$J$3,C4,$J$2)</f>
+        <v>insert into givesOpinionConcert values(02321423,4480,10);</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -494,8 +496,8 @@
         <v>3</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into givesOpinionConcert values(4737492,3980,7);</v>
+        <f>CONCATENATE($J$1,$D$22,A8,$J$3,B8,$J$3,C8,$J$2)</f>
+        <v>insert into givesOpinionConcert values(04737492,3980,7);</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -512,8 +514,8 @@
         <v>4</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into givesOpinionConcert values(1238471,3990,8);</v>
+        <f>CONCATENATE($J$1,$D$22,A10,$J$3,B10,$J$3,C10,$J$2)</f>
+        <v>insert into givesOpinionConcert values(01238471,3990,8);</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -527,8 +529,8 @@
         <v>5</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into givesOpinionConcert values(1238471,4470,5);</v>
+        <f>CONCATENATE($J$1,$D$22,A11,$J$3,B11,$J$3,C11,$J$2)</f>
+        <v>insert into givesOpinionConcert values(01238471,4470,5);</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -555,8 +557,8 @@
         <v>7</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into givesOpinionConcert values(3283295,4470,7);</v>
+        <f>CONCATENATE($J$1,$D$22,A17,$J$3,B17,$J$3,C17,$J$2)</f>
+        <v>insert into givesOpinionConcert values(03283295,4470,7);</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -573,13 +575,318 @@
         <v>8</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into givesOpinionConcert values(2374827,3990,6);</v>
+        <f>CONCATENATE($J$1,$D$22,A19,$J$3,B19,$J$3,C19,$J$2)</f>
+        <v>insert into givesOpinionConcert values(02374827,3990,6);</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1238471</v>
+      </c>
+      <c r="B24">
+        <v>8437</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="F24" t="str">
+        <f>CONCATENATE($J$1,$D$22,A24,$J$3,B24,$J$3,C24,$J$2)</f>
+        <v>insert into givesOpinionConcert values(01238471,8437,7);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1238471</v>
+      </c>
+      <c r="B25">
+        <v>3990</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="F25" t="str">
+        <f>CONCATENATE($J$1,$D$22,A25,$J$3,B25,$J$3,C25,$J$2)</f>
+        <v>insert into givesOpinionConcert values(01238471,3990,8);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1238471</v>
+      </c>
+      <c r="B26">
+        <v>4470</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="F26" t="str">
+        <f>CONCATENATE($J$1,$D$22,A26,$J$3,B26,$J$3,C26,$J$2)</f>
+        <v>insert into givesOpinionConcert values(01238471,4470,5);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1238471</v>
+      </c>
+      <c r="B27">
+        <v>7650</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="F27" t="str">
+        <f>CONCATENATE($J$1,$D$22,A27,$J$3,B27,$J$3,C27,$J$2)</f>
+        <v>insert into givesOpinionConcert values(01238471,7650,5);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2321423</v>
+      </c>
+      <c r="B28">
+        <v>3980</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="F28" t="str">
+        <f>CONCATENATE($J$1,$D$22,A28,$J$3,B28,$J$3,C28,$J$2)</f>
+        <v>insert into givesOpinionConcert values(02321423,3980,7);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2321423</v>
+      </c>
+      <c r="B29">
+        <v>3990</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="F29" t="str">
+        <f>CONCATENATE($J$1,$D$22,A29,$J$3,B29,$J$3,C29,$J$2)</f>
+        <v>insert into givesOpinionConcert values(02321423,3990,9);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2321423</v>
+      </c>
+      <c r="B30">
+        <v>4470</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="F30" t="str">
+        <f>CONCATENATE($J$1,$D$22,A30,$J$3,B30,$J$3,C30,$J$2)</f>
+        <v>insert into givesOpinionConcert values(02321423,4470,6);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2321423</v>
+      </c>
+      <c r="B31">
+        <v>1270</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="F31" t="str">
+        <f>CONCATENATE($J$1,$D$22,A31,$J$3,B31,$J$3,C31,$J$2)</f>
+        <v>insert into givesOpinionConcert values(02321423,1270,10);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2374827</v>
+      </c>
+      <c r="B32">
+        <v>3990</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="F32" t="str">
+        <f>CONCATENATE($J$1,$D$22,A32,$J$3,B32,$J$3,C32,$J$2)</f>
+        <v>insert into givesOpinionConcert values(02374827,3990,6);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2374827</v>
+      </c>
+      <c r="B33">
+        <v>4900</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="F33" t="str">
+        <f>CONCATENATE($J$1,$D$22,A33,$J$3,B33,$J$3,C33,$J$2)</f>
+        <v>insert into givesOpinionConcert values(02374827,4900,9);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3283295</v>
+      </c>
+      <c r="B34">
+        <v>4470</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="F34" t="str">
+        <f>CONCATENATE($J$1,$D$22,A34,$J$3,B34,$J$3,C34,$J$2)</f>
+        <v>insert into givesOpinionConcert values(03283295,4470,7);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3283295</v>
+      </c>
+      <c r="B35">
+        <v>4900</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="F35" t="str">
+        <f>CONCATENATE($J$1,$D$22,A35,$J$3,B35,$J$3,C35,$J$2)</f>
+        <v>insert into givesOpinionConcert values(03283295,4900,7);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3421987</v>
+      </c>
+      <c r="B36">
+        <v>4372</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="F36" t="str">
+        <f>CONCATENATE($J$1,$D$22,A36,$J$3,B36,$J$3,C36,$J$2)</f>
+        <v>insert into givesOpinionConcert values(03421987,4372,10);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4528483</v>
+      </c>
+      <c r="B37">
+        <v>7650</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="F37" t="str">
+        <f>CONCATENATE($J$1,$D$22,A37,$J$3,B37,$J$3,C37,$J$2)</f>
+        <v>insert into givesOpinionConcert values(04528483,7650,6);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4737492</v>
+      </c>
+      <c r="B38">
+        <v>1270</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="F38" t="str">
+        <f>CONCATENATE($J$1,$D$22,A38,$J$3,B38,$J$3,C38,$J$2)</f>
+        <v>insert into givesOpinionConcert values(04737492,1270,7);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4782107</v>
+      </c>
+      <c r="B39">
+        <v>9200</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="F39" t="str">
+        <f>CONCATENATE($J$1,$D$22,A39,$J$3,B39,$J$3,C39,$J$2)</f>
+        <v>insert into givesOpinionConcert values(04782107,9200,9);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4917493</v>
+      </c>
+      <c r="B40">
+        <v>4480</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="F40" t="str">
+        <f>CONCATENATE($J$1,$D$22,A40,$J$3,B40,$J$3,C40,$J$2)</f>
+        <v>insert into givesOpinionConcert values(04917493,4480,8);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>9043278</v>
+      </c>
+      <c r="B41">
+        <v>1834</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="F41" t="str">
+        <f>CONCATENATE($J$1,$D$22,A41,$J$3,B41,$J$3,C41,$J$2)</f>
+        <v>insert into givesOpinionConcert values(09043278,1834,10);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>9373493</v>
+      </c>
+      <c r="B42">
+        <v>4900</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="F42" t="str">
+        <f>CONCATENATE($J$1,$D$22,A42,$J$3,B42,$J$3,C42,$J$2)</f>
+        <v>insert into givesOpinionConcert values(09373493,4900,10);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>9373493</v>
+      </c>
+      <c r="B43">
+        <v>7650</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="F43" t="str">
+        <f>CONCATENATE($J$1,$D$22,A43,$J$3,B43,$J$3,C43,$J$2)</f>
+        <v>insert into givesOpinionConcert values(09373493,7650,9);</v>
       </c>
     </row>
   </sheetData>
